--- a/mtbf_result.xlsx
+++ b/mtbf_result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="675">
   <si>
     <t>Event Id</t>
   </si>
@@ -25,6 +25,2022 @@
   </si>
   <si>
     <t>Duration In Seconds</t>
+  </si>
+  <si>
+    <t>3f726637744c4221a9ddee2d956c142a</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:35:10Z</t>
+  </si>
+  <si>
+    <t>122.000000</t>
+  </si>
+  <si>
+    <t>15966f22301e431faf8602c3332ee417</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:35:50Z</t>
+  </si>
+  <si>
+    <t>40.000000</t>
+  </si>
+  <si>
+    <t>c346cfa8bdfa4ee4a90661008779b468</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:37:01Z</t>
+  </si>
+  <si>
+    <t>71.000000</t>
+  </si>
+  <si>
+    <t>7d601f83410f487c8e811fa78773e860</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:37:51Z</t>
+  </si>
+  <si>
+    <t>50.000000</t>
+  </si>
+  <si>
+    <t>c42cf346b1834b999959468ccb4bc12c</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:38:34Z</t>
+  </si>
+  <si>
+    <t>43.000000</t>
+  </si>
+  <si>
+    <t>4da766b173e444c69d4dedf5308b038d</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:40:48Z</t>
+  </si>
+  <si>
+    <t>134.000000</t>
+  </si>
+  <si>
+    <t>218860b92b3440d7a2e546d0e72c8cb1</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:41:19Z</t>
+  </si>
+  <si>
+    <t>31.000000</t>
+  </si>
+  <si>
+    <t>27745563d72a4bb68749ccd0a39862ad</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:41:54Z</t>
+  </si>
+  <si>
+    <t>35.000000</t>
+  </si>
+  <si>
+    <t>dc442519e561409c85c5fa2ba9f3ab68</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:43:36Z</t>
+  </si>
+  <si>
+    <t>102.000000</t>
+  </si>
+  <si>
+    <t>cf4ee2d3bed845a5ba889b46bc10ce02</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:44:08Z</t>
+  </si>
+  <si>
+    <t>32.000000</t>
+  </si>
+  <si>
+    <t>11c1d825d4a340aeae474c3d761263ea</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:44:52Z</t>
+  </si>
+  <si>
+    <t>44.000000</t>
+  </si>
+  <si>
+    <t>80cb70400110446b85437b5ac018ad02</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:45:25Z</t>
+  </si>
+  <si>
+    <t>33.000000</t>
+  </si>
+  <si>
+    <t>17b020b30c2349f88195f89d000a32c9</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:46:58Z</t>
+  </si>
+  <si>
+    <t>93.000000</t>
+  </si>
+  <si>
+    <t>7299a8c044bc4305851b52094e8fc33d</t>
+  </si>
+  <si>
+    <t>2016-08-19T13:50:36Z</t>
+  </si>
+  <si>
+    <t>218.000000</t>
+  </si>
+  <si>
+    <t>1087b8ab9a0c491a9ec051ce3049cbf5</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:08:10Z</t>
+  </si>
+  <si>
+    <t>1054.000000</t>
+  </si>
+  <si>
+    <t>161f1cc538a644a5810e3b51e807c802</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:08:31Z</t>
+  </si>
+  <si>
+    <t>21.000000</t>
+  </si>
+  <si>
+    <t>66ceb2fa49ee43a0a53f565d356d65c8</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:13:00Z</t>
+  </si>
+  <si>
+    <t>269.000000</t>
+  </si>
+  <si>
+    <t>ce5da5e3c7734c34b1f46bea707a7bdb</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:15:19Z</t>
+  </si>
+  <si>
+    <t>139.000000</t>
+  </si>
+  <si>
+    <t>b634bf839cdb460082b7e8d375494f67</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:15:45Z</t>
+  </si>
+  <si>
+    <t>26.000000</t>
+  </si>
+  <si>
+    <t>94931ffc38de4634aa1a1f2edc9b43a5</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:16:51Z</t>
+  </si>
+  <si>
+    <t>66.000000</t>
+  </si>
+  <si>
+    <t>4c0a11f31e35463893906292e2eac339</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:17:55Z</t>
+  </si>
+  <si>
+    <t>64.000000</t>
+  </si>
+  <si>
+    <t>519bb658bbf942a0a8f56bc4d6107eff</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:18:42Z</t>
+  </si>
+  <si>
+    <t>47.000000</t>
+  </si>
+  <si>
+    <t>2e857c5d509c4f4f8b7cefab81885ee4</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:19:30Z</t>
+  </si>
+  <si>
+    <t>48.000000</t>
+  </si>
+  <si>
+    <t>f1608e10d08241248521517036bd1433</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:20:13Z</t>
+  </si>
+  <si>
+    <t>55d7aacd6b6f451ca02bea407b52dab6</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:21:23Z</t>
+  </si>
+  <si>
+    <t>70.000000</t>
+  </si>
+  <si>
+    <t>2c8363a7a90c408bbcc96cbbba96d13f</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:22:08Z</t>
+  </si>
+  <si>
+    <t>45.000000</t>
+  </si>
+  <si>
+    <t>0955470d304c4c678bbbf088a4053b6a</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:24:31Z</t>
+  </si>
+  <si>
+    <t>143.000000</t>
+  </si>
+  <si>
+    <t>98127635efd1421ab15991f6715b2e00</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:25:16Z</t>
+  </si>
+  <si>
+    <t>d4c85b91e70d4d8284255e95589f33f0</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:25:54Z</t>
+  </si>
+  <si>
+    <t>38.000000</t>
+  </si>
+  <si>
+    <t>b14fb89b90964189aa18fd415fd50387</t>
+  </si>
+  <si>
+    <t>2016-08-19T14:26:27Z</t>
+  </si>
+  <si>
+    <t>aa28857642a740cba5fec3e4e65cdc77</t>
+  </si>
+  <si>
+    <t>2016-08-22T12:37:47Z</t>
+  </si>
+  <si>
+    <t>252680.000000</t>
+  </si>
+  <si>
+    <t>944445d50fa949e18d6fe20ac501b13c</t>
+  </si>
+  <si>
+    <t>2016-08-24T18:51:00Z</t>
+  </si>
+  <si>
+    <t>195193.000000</t>
+  </si>
+  <si>
+    <t>ba81c2566f8347be9e632acd3c7b1b80</t>
+  </si>
+  <si>
+    <t>2016-08-25T01:05:51Z</t>
+  </si>
+  <si>
+    <t>22491.000000</t>
+  </si>
+  <si>
+    <t>cf0d388485334d04a82e4e64c240dd49</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>ed3d47cc4d634916adc206c71e143249</t>
+  </si>
+  <si>
+    <t>2016-08-25T11:47:39Z</t>
+  </si>
+  <si>
+    <t>38508.000000</t>
+  </si>
+  <si>
+    <t>9cecc5abde4648b7bbe6517acb0d7795</t>
+  </si>
+  <si>
+    <t>2016-08-25T11:47:40Z</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>198b0ed1a57c4707bd5af02695e689b9</t>
+  </si>
+  <si>
+    <t>2016-08-25T12:04:43Z</t>
+  </si>
+  <si>
+    <t>1023.000000</t>
+  </si>
+  <si>
+    <t>aa00ffc557a047cbb4e455f7fe6635c4</t>
+  </si>
+  <si>
+    <t>d993ed7f6dd94da08f52b9fa56db5e2a</t>
+  </si>
+  <si>
+    <t>2016-08-25T12:05:16Z</t>
+  </si>
+  <si>
+    <t>65abfdd96d1a48b5aa7177ca292c2436</t>
+  </si>
+  <si>
+    <t>dbd003d4388e45f5b25d6d11e1170f7b</t>
+  </si>
+  <si>
+    <t>2016-08-25T17:51:26Z</t>
+  </si>
+  <si>
+    <t>20770.000000</t>
+  </si>
+  <si>
+    <t>d4a28198dbdf4b649d4d54dc884782fa</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:02:27Z</t>
+  </si>
+  <si>
+    <t>4261.000000</t>
+  </si>
+  <si>
+    <t>68067bdec40e45d083c144533732bdae</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:03:19Z</t>
+  </si>
+  <si>
+    <t>52.000000</t>
+  </si>
+  <si>
+    <t>c9d9310d9e184994bab418288a51cf51</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:05:09Z</t>
+  </si>
+  <si>
+    <t>110.000000</t>
+  </si>
+  <si>
+    <t>3f50dee494c1443f87760a42df7eb115</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:10:30Z</t>
+  </si>
+  <si>
+    <t>321.000000</t>
+  </si>
+  <si>
+    <t>1362cc69c122476b96577829bbd1f52f</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:12:08Z</t>
+  </si>
+  <si>
+    <t>98.000000</t>
+  </si>
+  <si>
+    <t>214f5d0bc2484185b1c489d2407a59ea</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:22:44Z</t>
+  </si>
+  <si>
+    <t>636.000000</t>
+  </si>
+  <si>
+    <t>29e1b0f850d643f697a0f37cdd1d6840</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:24:29Z</t>
+  </si>
+  <si>
+    <t>105.000000</t>
+  </si>
+  <si>
+    <t>88af3185aabe4442b3071010bc427ba2</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:24:46Z</t>
+  </si>
+  <si>
+    <t>17.000000</t>
+  </si>
+  <si>
+    <t>61d67b82482d4b399a1016273ae22360</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:26:12Z</t>
+  </si>
+  <si>
+    <t>86.000000</t>
+  </si>
+  <si>
+    <t>36def2c733ab49dd8f8dde9d723658ec</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:26:29Z</t>
+  </si>
+  <si>
+    <t>81fb1462b2c24572bff725ea7a910832</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:26:46Z</t>
+  </si>
+  <si>
+    <t>54e9fbc69d9b4a28ba331fadfe0e3a82</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:27:09Z</t>
+  </si>
+  <si>
+    <t>23.000000</t>
+  </si>
+  <si>
+    <t>f596641ae3714dbaa09e8795dfbcde0e</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:27:41Z</t>
+  </si>
+  <si>
+    <t>b5775fd27f254ebea49d2363d826e3e1</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:28:00Z</t>
+  </si>
+  <si>
+    <t>19.000000</t>
+  </si>
+  <si>
+    <t>41c05c1c67d34e9cadf4d629dfe1eaad</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:28:15Z</t>
+  </si>
+  <si>
+    <t>15.000000</t>
+  </si>
+  <si>
+    <t>d425b0332ee248059f8da705c6507f80</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:32:40Z</t>
+  </si>
+  <si>
+    <t>265.000000</t>
+  </si>
+  <si>
+    <t>51aaf856415d4c1086bed738180bbf5e</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:32:57Z</t>
+  </si>
+  <si>
+    <t>3519d41089784fcba8c93f62cabbe8cf</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:33:48Z</t>
+  </si>
+  <si>
+    <t>51.000000</t>
+  </si>
+  <si>
+    <t>d71675f1c2ed405db043b3494891cec0</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:42:27Z</t>
+  </si>
+  <si>
+    <t>519.000000</t>
+  </si>
+  <si>
+    <t>8ff69bb273134ba8945bc640fa84bb19</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:43:08Z</t>
+  </si>
+  <si>
+    <t>41.000000</t>
+  </si>
+  <si>
+    <t>7d7630c4687b4121bcd9e6650292545e</t>
+  </si>
+  <si>
+    <t>2016-08-25T19:43:29Z</t>
+  </si>
+  <si>
+    <t>20647a3043104b789ea95c242d5745e5</t>
+  </si>
+  <si>
+    <t>2016-08-25T20:09:55Z</t>
+  </si>
+  <si>
+    <t>1586.000000</t>
+  </si>
+  <si>
+    <t>734646b9673441e89728ed8e76f8c5a5</t>
+  </si>
+  <si>
+    <t>2016-08-26T11:30:48Z</t>
+  </si>
+  <si>
+    <t>55253.000000</t>
+  </si>
+  <si>
+    <t>d91552bfe3e34e06b9cad9fdaabd24b1</t>
+  </si>
+  <si>
+    <t>85435894228c49f89d8cf6a5e7702fb7</t>
+  </si>
+  <si>
+    <t>2016-08-26T14:00:12Z</t>
+  </si>
+  <si>
+    <t>8964.000000</t>
+  </si>
+  <si>
+    <t>c4f2c9c0c9824665b571360707af8b2b</t>
+  </si>
+  <si>
+    <t>2016-09-01T13:39:05Z</t>
+  </si>
+  <si>
+    <t>517133.000000</t>
+  </si>
+  <si>
+    <t>fc183a05edd14c5aaf4e3f7da41d3273</t>
+  </si>
+  <si>
+    <t>2016-09-01T13:45:57Z</t>
+  </si>
+  <si>
+    <t>412.000000</t>
+  </si>
+  <si>
+    <t>bb9f559036824e0ba5dc1a709603ec28</t>
+  </si>
+  <si>
+    <t>2016-09-02T11:28:32Z</t>
+  </si>
+  <si>
+    <t>78155.000000</t>
+  </si>
+  <si>
+    <t>7d918efb80c24aefa7e11a51b8551b39</t>
+  </si>
+  <si>
+    <t>2016-09-02T11:30:05Z</t>
+  </si>
+  <si>
+    <t>da0ee33fa20b4d738d2d08aae37fdaf9</t>
+  </si>
+  <si>
+    <t>2016-09-05T18:45:18Z</t>
+  </si>
+  <si>
+    <t>285313.000000</t>
+  </si>
+  <si>
+    <t>8888b55866404ad396880543bbc9cae6</t>
+  </si>
+  <si>
+    <t>2016-09-05T18:45:36Z</t>
+  </si>
+  <si>
+    <t>18.000000</t>
+  </si>
+  <si>
+    <t>51066fd79f64493fa6b2731dff5d1925</t>
+  </si>
+  <si>
+    <t>2016-09-05T18:45:37Z</t>
+  </si>
+  <si>
+    <t>89364d93a36a4b73b8f295b9c332194b</t>
+  </si>
+  <si>
+    <t>2016-09-05T18:45:45Z</t>
+  </si>
+  <si>
+    <t>8.000000</t>
+  </si>
+  <si>
+    <t>3ce1387626174fc9b4fdb798a5ee8e6b</t>
+  </si>
+  <si>
+    <t>2016-09-05T19:01:22Z</t>
+  </si>
+  <si>
+    <t>937.000000</t>
+  </si>
+  <si>
+    <t>f182726433cd48398e5ec2c899ad887e</t>
+  </si>
+  <si>
+    <t>2016-09-05T19:01:27Z</t>
+  </si>
+  <si>
+    <t>5.000000</t>
+  </si>
+  <si>
+    <t>82c6fe217929496bafea2bf8f49588f3</t>
+  </si>
+  <si>
+    <t>2016-09-05T19:43:07Z</t>
+  </si>
+  <si>
+    <t>2500.000000</t>
+  </si>
+  <si>
+    <t>628fcbee489d498b982e891910ea0ff6</t>
+  </si>
+  <si>
+    <t>2016-09-05T20:03:15Z</t>
+  </si>
+  <si>
+    <t>1208.000000</t>
+  </si>
+  <si>
+    <t>66045f7fad194cbabcd13d6c339c3940</t>
+  </si>
+  <si>
+    <t>2016-09-05T20:09:34Z</t>
+  </si>
+  <si>
+    <t>379.000000</t>
+  </si>
+  <si>
+    <t>1eb46fb00131496fa46d1450e8ffc5b8</t>
+  </si>
+  <si>
+    <t>2016-09-05T20:48:44Z</t>
+  </si>
+  <si>
+    <t>2350.000000</t>
+  </si>
+  <si>
+    <t>6f005e0d21a04321a65fc337a2682fd6</t>
+  </si>
+  <si>
+    <t>2016-09-05T20:48:50Z</t>
+  </si>
+  <si>
+    <t>6.000000</t>
+  </si>
+  <si>
+    <t>45bf05d6f73a468c8e597796e807d29a</t>
+  </si>
+  <si>
+    <t>2016-09-05T20:48:52Z</t>
+  </si>
+  <si>
+    <t>2.000000</t>
+  </si>
+  <si>
+    <t>d79f5555f1544286b2b9e37776be6738</t>
+  </si>
+  <si>
+    <t>2016-09-05T22:24:47Z</t>
+  </si>
+  <si>
+    <t>5755.000000</t>
+  </si>
+  <si>
+    <t>7078792ddb6a4fbaadec3bc5ad22859c</t>
+  </si>
+  <si>
+    <t>2016-09-05T22:24:54Z</t>
+  </si>
+  <si>
+    <t>7.000000</t>
+  </si>
+  <si>
+    <t>c9d2798bfc064d698099d5f91404b434</t>
+  </si>
+  <si>
+    <t>2016-09-05T22:34:19Z</t>
+  </si>
+  <si>
+    <t>565.000000</t>
+  </si>
+  <si>
+    <t>60efc04b74fe4d84a6978abb1b7937db</t>
+  </si>
+  <si>
+    <t>2016-09-06T02:13:10Z</t>
+  </si>
+  <si>
+    <t>13131.000000</t>
+  </si>
+  <si>
+    <t>183bcf6a11a84ee0828be9df0af6b101</t>
+  </si>
+  <si>
+    <t>2016-09-06T02:15:08Z</t>
+  </si>
+  <si>
+    <t>118.000000</t>
+  </si>
+  <si>
+    <t>3c6b4a0725f1456c8f126d450bfb3d90</t>
+  </si>
+  <si>
+    <t>2016-09-06T02:18:14Z</t>
+  </si>
+  <si>
+    <t>186.000000</t>
+  </si>
+  <si>
+    <t>09354762ce3842f48fcaa75faf14cecc</t>
+  </si>
+  <si>
+    <t>2016-09-06T10:38:15Z</t>
+  </si>
+  <si>
+    <t>30001.000000</t>
+  </si>
+  <si>
+    <t>0d0737703dd34f77b7609a855b258beb</t>
+  </si>
+  <si>
+    <t>2016-09-06T16:50:45Z</t>
+  </si>
+  <si>
+    <t>22350.000000</t>
+  </si>
+  <si>
+    <t>c59b3823004b4331a6a8dc201439517b</t>
+  </si>
+  <si>
+    <t>2016-09-06T16:51:43Z</t>
+  </si>
+  <si>
+    <t>58.000000</t>
+  </si>
+  <si>
+    <t>d9bdeccaeeb745e2b8431c6fde5b00a9</t>
+  </si>
+  <si>
+    <t>2016-09-06T16:52:13Z</t>
+  </si>
+  <si>
+    <t>30.000000</t>
+  </si>
+  <si>
+    <t>50c78a2363414fb682830209e536090f</t>
+  </si>
+  <si>
+    <t>2016-09-07T14:09:46Z</t>
+  </si>
+  <si>
+    <t>76653.000000</t>
+  </si>
+  <si>
+    <t>918a3507673a4ce6b721133b7a21e52d</t>
+  </si>
+  <si>
+    <t>2016-09-07T21:45:13Z</t>
+  </si>
+  <si>
+    <t>27327.000000</t>
+  </si>
+  <si>
+    <t>cf1de9987ad54b2db44b8993dda351fd</t>
+  </si>
+  <si>
+    <t>2016-09-07T21:45:55Z</t>
+  </si>
+  <si>
+    <t>42.000000</t>
+  </si>
+  <si>
+    <t>9620ef5603214b44a878e2a1a325bf17</t>
+  </si>
+  <si>
+    <t>2016-09-07T21:52:27Z</t>
+  </si>
+  <si>
+    <t>392.000000</t>
+  </si>
+  <si>
+    <t>0095dbf143dc44ad92ba49bf4860ca30</t>
+  </si>
+  <si>
+    <t>2016-09-07T21:53:32Z</t>
+  </si>
+  <si>
+    <t>65.000000</t>
+  </si>
+  <si>
+    <t>14691424022d4d3da094d636a5bfe7af</t>
+  </si>
+  <si>
+    <t>2016-09-09T14:03:27Z</t>
+  </si>
+  <si>
+    <t>144595.000000</t>
+  </si>
+  <si>
+    <t>2fee4a69ed954700a2f7cb36db07aca4</t>
+  </si>
+  <si>
+    <t>2016-09-15T06:30:04Z</t>
+  </si>
+  <si>
+    <t>491197.000000</t>
+  </si>
+  <si>
+    <t>a6bee8139fe74fe18822c33353a98440</t>
+  </si>
+  <si>
+    <t>2016-09-19T17:44:06Z</t>
+  </si>
+  <si>
+    <t>386042.000000</t>
+  </si>
+  <si>
+    <t>b6b3ecee2683401bae0c74d63ecbb2e1</t>
+  </si>
+  <si>
+    <t>2016-09-19T17:45:27Z</t>
+  </si>
+  <si>
+    <t>81.000000</t>
+  </si>
+  <si>
+    <t>94fb0c89b77848dea9ed68578501e0be</t>
+  </si>
+  <si>
+    <t>2016-09-19T17:56:34Z</t>
+  </si>
+  <si>
+    <t>667.000000</t>
+  </si>
+  <si>
+    <t>a51a884486f04c8c9231292acecba93a</t>
+  </si>
+  <si>
+    <t>2016-09-19T17:56:54Z</t>
+  </si>
+  <si>
+    <t>20.000000</t>
+  </si>
+  <si>
+    <t>a44ea0f20a1b49e794477e036de75c09</t>
+  </si>
+  <si>
+    <t>2016-09-19T17:57:02Z</t>
+  </si>
+  <si>
+    <t>6391abde7d4442c08114349d6e1f5665</t>
+  </si>
+  <si>
+    <t>2016-09-19T17:58:55Z</t>
+  </si>
+  <si>
+    <t>113.000000</t>
+  </si>
+  <si>
+    <t>57f407732d0348b6af64e103ee13383f</t>
+  </si>
+  <si>
+    <t>2016-09-19T18:01:53Z</t>
+  </si>
+  <si>
+    <t>178.000000</t>
+  </si>
+  <si>
+    <t>86959eb7fb374c1f8c351a0522011154</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:32:11Z</t>
+  </si>
+  <si>
+    <t>5418.000000</t>
+  </si>
+  <si>
+    <t>1008b239674c4a88bc7a1379086915ca</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:32:31Z</t>
+  </si>
+  <si>
+    <t>b9b33c418c6d4e4197c707a297ff80b7</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:32:52Z</t>
+  </si>
+  <si>
+    <t>bdfce981645f46bb9f874f76f78f1515</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:33:24Z</t>
+  </si>
+  <si>
+    <t>7e5bd00b0b364d5a8de2bc6aae100257</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:45:34Z</t>
+  </si>
+  <si>
+    <t>730.000000</t>
+  </si>
+  <si>
+    <t>e120e218b6b145c7a03d322eb66ce985</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:48:18Z</t>
+  </si>
+  <si>
+    <t>164.000000</t>
+  </si>
+  <si>
+    <t>898a09d7267343a0bac787596b977c55</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:48:40Z</t>
+  </si>
+  <si>
+    <t>22.000000</t>
+  </si>
+  <si>
+    <t>060d399a01f54dd682394cc61df87f96</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:48:48Z</t>
+  </si>
+  <si>
+    <t>c6cf7e1092a64a34932a77899b8274f7</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:48:59Z</t>
+  </si>
+  <si>
+    <t>11.000000</t>
+  </si>
+  <si>
+    <t>08dc9ebdd6944eb68dadeaaa995c24c4</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:57:08Z</t>
+  </si>
+  <si>
+    <t>489.000000</t>
+  </si>
+  <si>
+    <t>3605cbc3c81249d69ff4bb9775aa63d0</t>
+  </si>
+  <si>
+    <t>2016-09-19T19:57:28Z</t>
+  </si>
+  <si>
+    <t>38a800443b1e4d048f5a453a0173096e</t>
+  </si>
+  <si>
+    <t>2016-09-19T20:16:57Z</t>
+  </si>
+  <si>
+    <t>1169.000000</t>
+  </si>
+  <si>
+    <t>e7d9e80342ef4777bebee21661c5f34c</t>
+  </si>
+  <si>
+    <t>2016-09-19T20:24:51Z</t>
+  </si>
+  <si>
+    <t>474.000000</t>
+  </si>
+  <si>
+    <t>470705e6940a4de9bf316ae952b45b16</t>
+  </si>
+  <si>
+    <t>2016-09-20T03:33:41Z</t>
+  </si>
+  <si>
+    <t>25730.000000</t>
+  </si>
+  <si>
+    <t>06f1ee0dbdc24860ac269e7e8eac208c</t>
+  </si>
+  <si>
+    <t>2016-09-20T03:33:45Z</t>
+  </si>
+  <si>
+    <t>4.000000</t>
+  </si>
+  <si>
+    <t>de4d9a5a23884b9ab12431f06419f041</t>
+  </si>
+  <si>
+    <t>2016-09-20T03:35:05Z</t>
+  </si>
+  <si>
+    <t>80.000000</t>
+  </si>
+  <si>
+    <t>738e75ebbf644df39b63fbf4e5eb0509</t>
+  </si>
+  <si>
+    <t>2016-09-20T12:37:30Z</t>
+  </si>
+  <si>
+    <t>32545.000000</t>
+  </si>
+  <si>
+    <t>15e73a7b5839423591c3c1a2ee1d6164</t>
+  </si>
+  <si>
+    <t>2016-09-20T19:45:42Z</t>
+  </si>
+  <si>
+    <t>25692.000000</t>
+  </si>
+  <si>
+    <t>032f5a6b9f1442de8eb338b51f147900</t>
+  </si>
+  <si>
+    <t>2016-09-20T20:18:21Z</t>
+  </si>
+  <si>
+    <t>1959.000000</t>
+  </si>
+  <si>
+    <t>4b29ada17d2747daad7deca1b6a3ab73</t>
+  </si>
+  <si>
+    <t>2016-09-20T20:18:26Z</t>
+  </si>
+  <si>
+    <t>aec3a42f0073445a8cc4a71cf3a60246</t>
+  </si>
+  <si>
+    <t>2016-09-20T20:27:20Z</t>
+  </si>
+  <si>
+    <t>534.000000</t>
+  </si>
+  <si>
+    <t>99778e8541a94d2eb5609997816ba2e8</t>
+  </si>
+  <si>
+    <t>3764ead2185c4c35802998e8dfa299db</t>
+  </si>
+  <si>
+    <t>2016-09-20T20:30:24Z</t>
+  </si>
+  <si>
+    <t>184.000000</t>
+  </si>
+  <si>
+    <t>deba28b1ea80490d8b653e1eb916da7a</t>
+  </si>
+  <si>
+    <t>2016-09-20T20:30:35Z</t>
+  </si>
+  <si>
+    <t>b42ef05cf8534316ab7b5b2fa3614f5b</t>
+  </si>
+  <si>
+    <t>2016-09-20T21:16:04Z</t>
+  </si>
+  <si>
+    <t>2729.000000</t>
+  </si>
+  <si>
+    <t>6662e17479404708b59c7009205bd7d5</t>
+  </si>
+  <si>
+    <t>2016-09-21T01:59:04Z</t>
+  </si>
+  <si>
+    <t>16980.000000</t>
+  </si>
+  <si>
+    <t>c391b0823a1144239e786e1dd1ee7375</t>
+  </si>
+  <si>
+    <t>2016-09-21T02:25:58Z</t>
+  </si>
+  <si>
+    <t>1614.000000</t>
+  </si>
+  <si>
+    <t>860955e00c2843bbb8fe66cca21ee1a1</t>
+  </si>
+  <si>
+    <t>2016-09-21T02:26:34Z</t>
+  </si>
+  <si>
+    <t>36.000000</t>
+  </si>
+  <si>
+    <t>7be6b03fcf05458fa6463422e4c5fb32</t>
+  </si>
+  <si>
+    <t>2016-09-21T15:51:06Z</t>
+  </si>
+  <si>
+    <t>48272.000000</t>
+  </si>
+  <si>
+    <t>d0f5a69d08424e5cad6cf7129871b46c</t>
+  </si>
+  <si>
+    <t>2016-09-21T15:52:12Z</t>
+  </si>
+  <si>
+    <t>23a673633c5c400e98756435495c5935</t>
+  </si>
+  <si>
+    <t>2016-09-23T12:15:19Z</t>
+  </si>
+  <si>
+    <t>159787.000000</t>
+  </si>
+  <si>
+    <t>ea63c8b6415e44a4b38e999abcb9f7f1</t>
+  </si>
+  <si>
+    <t>2016-09-24T17:47:45Z</t>
+  </si>
+  <si>
+    <t>106346.000000</t>
+  </si>
+  <si>
+    <t>18d81f9403664ecd8f78c73031c18499</t>
+  </si>
+  <si>
+    <t>2016-09-24T17:55:46Z</t>
+  </si>
+  <si>
+    <t>481.000000</t>
+  </si>
+  <si>
+    <t>65989b35d48145138674e55e9210c9a3</t>
+  </si>
+  <si>
+    <t>2016-09-24T18:00:14Z</t>
+  </si>
+  <si>
+    <t>268.000000</t>
+  </si>
+  <si>
+    <t>718551d2ed6848af96a04b3f40cc26f0</t>
+  </si>
+  <si>
+    <t>4c59c04d3b354d4a9427c421b62cac87</t>
+  </si>
+  <si>
+    <t>2016-09-25T16:05:28Z</t>
+  </si>
+  <si>
+    <t>79514.000000</t>
+  </si>
+  <si>
+    <t>5dff1c7ac5d04ca48219dfe04f1991a9</t>
+  </si>
+  <si>
+    <t>2016-09-25T16:15:59Z</t>
+  </si>
+  <si>
+    <t>631.000000</t>
+  </si>
+  <si>
+    <t>605aea73fa8e4ecf819f455d76593313</t>
+  </si>
+  <si>
+    <t>2016-09-25T16:16:39Z</t>
+  </si>
+  <si>
+    <t>b285e4222b384e07ade91beb709d574a</t>
+  </si>
+  <si>
+    <t>2016-09-25T16:32:35Z</t>
+  </si>
+  <si>
+    <t>956.000000</t>
+  </si>
+  <si>
+    <t>9327c227f1b2404ab1d883e12de8879e</t>
+  </si>
+  <si>
+    <t>2016-09-25T23:12:31Z</t>
+  </si>
+  <si>
+    <t>23996.000000</t>
+  </si>
+  <si>
+    <t>10ed265e3d434841910590ea32182716</t>
+  </si>
+  <si>
+    <t>2016-09-25T23:21:58Z</t>
+  </si>
+  <si>
+    <t>567.000000</t>
+  </si>
+  <si>
+    <t>7de6a04385734c908492d40f6d03f072</t>
+  </si>
+  <si>
+    <t>2016-09-25T23:24:04Z</t>
+  </si>
+  <si>
+    <t>126.000000</t>
+  </si>
+  <si>
+    <t>fcb789d84fff4ca6864ca6b9e7426f1c</t>
+  </si>
+  <si>
+    <t>2016-09-25T23:25:57Z</t>
+  </si>
+  <si>
+    <t>5acd59089757499fb0f32f8d7e94d091</t>
+  </si>
+  <si>
+    <t>2016-09-25T23:33:43Z</t>
+  </si>
+  <si>
+    <t>466.000000</t>
+  </si>
+  <si>
+    <t>a27c3bd4fcfa41c5844c4e38b2846713</t>
+  </si>
+  <si>
+    <t>2016-09-25T23:34:06Z</t>
+  </si>
+  <si>
+    <t>693618691fa54b0aa512755d2d056d5b</t>
+  </si>
+  <si>
+    <t>2016-09-25T23:36:29Z</t>
+  </si>
+  <si>
+    <t>b1c28fa039804680bfef1cab097e936e</t>
+  </si>
+  <si>
+    <t>2016-09-26T01:21:47Z</t>
+  </si>
+  <si>
+    <t>6318.000000</t>
+  </si>
+  <si>
+    <t>429dd75e6555479c8c69c3d4cc1a7845</t>
+  </si>
+  <si>
+    <t>2016-09-26T02:33:59Z</t>
+  </si>
+  <si>
+    <t>4332.000000</t>
+  </si>
+  <si>
+    <t>bcd369b94a1a4012b2772f069340f208</t>
+  </si>
+  <si>
+    <t>2016-09-26T02:34:27Z</t>
+  </si>
+  <si>
+    <t>28.000000</t>
+  </si>
+  <si>
+    <t>840b66cbced44d1abdeda835cc5523a0</t>
+  </si>
+  <si>
+    <t>2016-09-26T02:34:31Z</t>
+  </si>
+  <si>
+    <t>e8331d43e5b24706b0d106bb9ec2e7fe</t>
+  </si>
+  <si>
+    <t>2016-09-26T11:48:21Z</t>
+  </si>
+  <si>
+    <t>33230.000000</t>
+  </si>
+  <si>
+    <t>262ab5cca0754d8d802513b74943d50e</t>
+  </si>
+  <si>
+    <t>2016-09-26T11:51:24Z</t>
+  </si>
+  <si>
+    <t>183.000000</t>
+  </si>
+  <si>
+    <t>cefce595b73b4707b110357e93f280ad</t>
+  </si>
+  <si>
+    <t>2016-09-26T23:42:54Z</t>
+  </si>
+  <si>
+    <t>42690.000000</t>
+  </si>
+  <si>
+    <t>ff189fedd67041dc8f4f54e50ca06eb9</t>
+  </si>
+  <si>
+    <t>2016-09-29T20:01:32Z</t>
+  </si>
+  <si>
+    <t>245918.000000</t>
+  </si>
+  <si>
+    <t>27c357b9958d4cc19ce58aaa542afb30</t>
+  </si>
+  <si>
+    <t>2016-09-29T23:24:27Z</t>
+  </si>
+  <si>
+    <t>12175.000000</t>
+  </si>
+  <si>
+    <t>9587be9322a64b24be6aaefabf243a33</t>
+  </si>
+  <si>
+    <t>2016-09-29T23:24:35Z</t>
+  </si>
+  <si>
+    <t>de1626eb83e94293805478cfc66a26e7</t>
+  </si>
+  <si>
+    <t>2016-10-01T01:30:39Z</t>
+  </si>
+  <si>
+    <t>93964.000000</t>
+  </si>
+  <si>
+    <t>529160805c6b4cf9ad47a4efd32f7eeb</t>
+  </si>
+  <si>
+    <t>2016-10-04T02:29:16Z</t>
+  </si>
+  <si>
+    <t>262717.000000</t>
+  </si>
+  <si>
+    <t>62dc05857a19438ba093b5c197114783</t>
+  </si>
+  <si>
+    <t>2016-10-04T02:34:43Z</t>
+  </si>
+  <si>
+    <t>327.000000</t>
+  </si>
+  <si>
+    <t>5e44c887bf9748a0bc3d2f382cea66fc</t>
+  </si>
+  <si>
+    <t>2016-10-04T03:34:15Z</t>
+  </si>
+  <si>
+    <t>3572.000000</t>
+  </si>
+  <si>
+    <t>93119a115d58461699892e0916098a2e</t>
+  </si>
+  <si>
+    <t>2016-10-04T03:34:33Z</t>
+  </si>
+  <si>
+    <t>20673bb6fe654956b5d933638d9300cc</t>
+  </si>
+  <si>
+    <t>2016-10-04T03:35:09Z</t>
+  </si>
+  <si>
+    <t>e1380fcf9aea4f33bcf95a08ef938be3</t>
+  </si>
+  <si>
+    <t>2016-10-04T04:13:55Z</t>
+  </si>
+  <si>
+    <t>2326.000000</t>
+  </si>
+  <si>
+    <t>c23ae0870cce4a2694f4584ac1d001f6</t>
+  </si>
+  <si>
+    <t>2016-10-04T04:22:01Z</t>
+  </si>
+  <si>
+    <t>486.000000</t>
+  </si>
+  <si>
+    <t>40c4ad9b9c784b53ab91563f2790a957</t>
+  </si>
+  <si>
+    <t>2016-10-04T04:31:45Z</t>
+  </si>
+  <si>
+    <t>584.000000</t>
+  </si>
+  <si>
+    <t>63574f3174f24da19880e7467c18e500</t>
+  </si>
+  <si>
+    <t>2016-10-04T04:32:49Z</t>
+  </si>
+  <si>
+    <t>5840706e26dc4468b6739495ad64ea9f</t>
+  </si>
+  <si>
+    <t>2016-10-04T04:40:00Z</t>
+  </si>
+  <si>
+    <t>431.000000</t>
+  </si>
+  <si>
+    <t>42d0af6084fb44d684b8989320138110</t>
+  </si>
+  <si>
+    <t>2016-10-04T04:40:16Z</t>
+  </si>
+  <si>
+    <t>16.000000</t>
+  </si>
+  <si>
+    <t>66678a4402674154bc8a538a7d2f5524</t>
+  </si>
+  <si>
+    <t>2016-10-04T04:40:39Z</t>
+  </si>
+  <si>
+    <t>4a68812b82f14dccaa79eb56b9ea4bc0</t>
+  </si>
+  <si>
+    <t>2016-10-05T14:04:38Z</t>
+  </si>
+  <si>
+    <t>120239.000000</t>
+  </si>
+  <si>
+    <t>ddc938b29dd94619990dea6d4e0a2be8</t>
+  </si>
+  <si>
+    <t>2016-10-05T14:07:38Z</t>
+  </si>
+  <si>
+    <t>180.000000</t>
+  </si>
+  <si>
+    <t>00feb1c0e3e3481eb5e290fd2b5da245</t>
+  </si>
+  <si>
+    <t>2016-10-05T14:11:22Z</t>
+  </si>
+  <si>
+    <t>224.000000</t>
+  </si>
+  <si>
+    <t>dad8c8914bac4793b41b937a932dbe72</t>
+  </si>
+  <si>
+    <t>7bc64b716732419face06102a4a74eed</t>
+  </si>
+  <si>
+    <t>2016-10-05T14:17:55Z</t>
+  </si>
+  <si>
+    <t>393.000000</t>
+  </si>
+  <si>
+    <t>ae2375d8c0a843f8b0ba3da7b220f282</t>
+  </si>
+  <si>
+    <t>9d1ea6da5e23457b89d384dcfdb7de12</t>
+  </si>
+  <si>
+    <t>2016-10-05T15:22:31Z</t>
+  </si>
+  <si>
+    <t>3876.000000</t>
+  </si>
+  <si>
+    <t>e693ea231f994a95ad1815a4b3067c6c</t>
+  </si>
+  <si>
+    <t>fb5c9a7403324f789bbd74d73de34b90</t>
+  </si>
+  <si>
+    <t>23befbb73d4f487a80e9f9f86886e805</t>
+  </si>
+  <si>
+    <t>79f5b0e5e4134427bbe7d5e7427f558e</t>
+  </si>
+  <si>
+    <t>5bd9d5fcff854cde9233001e539c1094</t>
+  </si>
+  <si>
+    <t>1070f48120394b6fa4a8e321d3f9e0df</t>
+  </si>
+  <si>
+    <t>3362d6d88b6f49f2a5bb27424e10c331</t>
+  </si>
+  <si>
+    <t>2016-10-05T15:22:32Z</t>
+  </si>
+  <si>
+    <t>2adc98fae03c4b0e9af74393935b2a10</t>
+  </si>
+  <si>
+    <t>12e6107d5505485da9278eb13d9a0a9f</t>
+  </si>
+  <si>
+    <t>c8d745e795ba483c9df07cc054fa75bd</t>
+  </si>
+  <si>
+    <t>2016-10-05T15:23:15Z</t>
+  </si>
+  <si>
+    <t>de3b80ed36df44dcacd397b01ad48466</t>
+  </si>
+  <si>
+    <t>574c1f97b9aa4a39932c8760774137be</t>
+  </si>
+  <si>
+    <t>c5d5b71ace114ec5a56b8e9bdf5f6fd7</t>
+  </si>
+  <si>
+    <t>7755fafb48824eaa8d9de2ad2388b81f</t>
+  </si>
+  <si>
+    <t>1c063fd6c9614462927cc2e9525a39f7</t>
+  </si>
+  <si>
+    <t>fbded87241d44deea7740d7b6ec091b0</t>
+  </si>
+  <si>
+    <t>502d7ccb7a7a4e6daec741daaf5e6604</t>
+  </si>
+  <si>
+    <t>2016-10-05T15:23:16Z</t>
+  </si>
+  <si>
+    <t>4519aa3431414e5a86dad66c04f281a9</t>
+  </si>
+  <si>
+    <t>25d4d6cac79e41a0b65d88c4ae089b6c</t>
+  </si>
+  <si>
+    <t>a8aff42d864b4427920b42b814515989</t>
+  </si>
+  <si>
+    <t>2016-10-06T01:00:10Z</t>
+  </si>
+  <si>
+    <t>34614.000000</t>
+  </si>
+  <si>
+    <t>938d9f7d45b74f06b2873d017e9c78d5</t>
+  </si>
+  <si>
+    <t>1f6394d4f92941429c65baeb938536a8</t>
+  </si>
+  <si>
+    <t>2016-10-11T13:32:55Z</t>
+  </si>
+  <si>
+    <t>477165.000000</t>
+  </si>
+  <si>
+    <t>98514a11053f422ea7012ee625905525</t>
+  </si>
+  <si>
+    <t>2016-10-11T13:32:56Z</t>
+  </si>
+  <si>
+    <t>d9a86ef60e8c4e0b91994cc9867ae8e5</t>
+  </si>
+  <si>
+    <t>2016-10-12T19:22:34Z</t>
+  </si>
+  <si>
+    <t>107378.000000</t>
+  </si>
+  <si>
+    <t>562a1315a83b4ce08df3437f7525ec06</t>
+  </si>
+  <si>
+    <t>2016-10-12T19:36:01Z</t>
+  </si>
+  <si>
+    <t>807.000000</t>
+  </si>
+  <si>
+    <t>a085b8c96b1144188665671731d89176</t>
+  </si>
+  <si>
+    <t>2016-10-12T19:45:24Z</t>
+  </si>
+  <si>
+    <t>563.000000</t>
+  </si>
+  <si>
+    <t>f60903679eaa4f898c4158d7966de7d1</t>
+  </si>
+  <si>
+    <t>2016-10-12T19:49:58Z</t>
+  </si>
+  <si>
+    <t>274.000000</t>
+  </si>
+  <si>
+    <t>042622d68f0c48138bf783ea3f2bde9e</t>
+  </si>
+  <si>
+    <t>2016-10-12T19:51:08Z</t>
+  </si>
+  <si>
+    <t>d7882f16bf2844c8b834b03d742b5adc</t>
+  </si>
+  <si>
+    <t>2016-10-12T21:31:32Z</t>
+  </si>
+  <si>
+    <t>6024.000000</t>
+  </si>
+  <si>
+    <t>25e1c0e429c44492a00fe5f3a9309c40</t>
+  </si>
+  <si>
+    <t>2016-10-13T00:27:48Z</t>
+  </si>
+  <si>
+    <t>10576.000000</t>
+  </si>
+  <si>
+    <t>442d253795bd4b4bb113291fcabaef16</t>
+  </si>
+  <si>
+    <t>2016-10-13T00:28:15Z</t>
+  </si>
+  <si>
+    <t>27.000000</t>
+  </si>
+  <si>
+    <t>b00046f668b2426fb00a184c4e561972</t>
+  </si>
+  <si>
+    <t>2016-10-13T00:39:07Z</t>
+  </si>
+  <si>
+    <t>652.000000</t>
+  </si>
+  <si>
+    <t>da1fa027a5ff4f57aee0bae2d78182ce</t>
+  </si>
+  <si>
+    <t>2016-10-13T00:41:07Z</t>
+  </si>
+  <si>
+    <t>120.000000</t>
+  </si>
+  <si>
+    <t>b6fcd6077c6849cba896dd7d7ad53c91</t>
+  </si>
+  <si>
+    <t>2016-10-13T00:42:34Z</t>
+  </si>
+  <si>
+    <t>87.000000</t>
+  </si>
+  <si>
+    <t>6287dee0c8b5454da47c3e80a0b338b7</t>
+  </si>
+  <si>
+    <t>2016-10-13T00:45:32Z</t>
+  </si>
+  <si>
+    <t>a18a144224234e78b6d66906861b1d57</t>
+  </si>
+  <si>
+    <t>2016-10-13T01:21:32Z</t>
+  </si>
+  <si>
+    <t>2160.000000</t>
+  </si>
+  <si>
+    <t>a74ddf3c7fa44d8a846e24d612ebc381</t>
+  </si>
+  <si>
+    <t>2016-10-13T01:22:16Z</t>
+  </si>
+  <si>
+    <t>8c3e028ff9b342ae9478d0276557d46f</t>
+  </si>
+  <si>
+    <t>2016-10-13T01:29:05Z</t>
+  </si>
+  <si>
+    <t>409.000000</t>
+  </si>
+  <si>
+    <t>01f7dcf5067f43a2ab935b09ad13a7e6</t>
+  </si>
+  <si>
+    <t>2016-10-13T01:33:01Z</t>
+  </si>
+  <si>
+    <t>236.000000</t>
+  </si>
+  <si>
+    <t>c2498bbe9c314590aa8601b480722d14</t>
+  </si>
+  <si>
+    <t>2016-10-14T01:37:24Z</t>
+  </si>
+  <si>
+    <t>86663.000000</t>
+  </si>
+  <si>
+    <t>507ab936d8fa4de68c81930c4c1a9e14</t>
+  </si>
+  <si>
+    <t>2016-10-14T01:37:57Z</t>
+  </si>
+  <si>
+    <t>bd592329c819432f8190a185490410cd</t>
+  </si>
+  <si>
+    <t>2016-10-14T02:01:33Z</t>
+  </si>
+  <si>
+    <t>1416.000000</t>
+  </si>
+  <si>
+    <t>15a11cc5cb6642369f15aabdeb55fe1e</t>
+  </si>
+  <si>
+    <t>2016-10-14T03:52:11Z</t>
+  </si>
+  <si>
+    <t>6638.000000</t>
+  </si>
+  <si>
+    <t>16b887db6ab7434ea71a32296d6e773e</t>
+  </si>
+  <si>
+    <t>2016-10-14T03:55:14Z</t>
+  </si>
+  <si>
+    <t>57038bb825d249e1a4b4f14df5e8f3ec</t>
+  </si>
+  <si>
+    <t>2016-10-14T03:58:58Z</t>
+  </si>
+  <si>
+    <t>8b833d20e693423fad356db2835da0d9</t>
+  </si>
+  <si>
+    <t>2016-10-14T04:30:37Z</t>
+  </si>
+  <si>
+    <t>1899.000000</t>
+  </si>
+  <si>
+    <t>6c19e4a4af2d43768c1accbba687bb5c</t>
+  </si>
+  <si>
+    <t>2016-10-14T04:30:54Z</t>
+  </si>
+  <si>
+    <t>16703e3b3fb34721b042a591de92bd94</t>
+  </si>
+  <si>
+    <t>2016-10-14T04:39:42Z</t>
+  </si>
+  <si>
+    <t>528.000000</t>
+  </si>
+  <si>
+    <t>192ee40b15084151a91c11f3d03b6249</t>
+  </si>
+  <si>
+    <t>2016-10-14T04:41:04Z</t>
+  </si>
+  <si>
+    <t>82.000000</t>
+  </si>
+  <si>
+    <t>d919deb95f244352b146e812971ddeb5</t>
+  </si>
+  <si>
+    <t>2016-10-14T11:46:11Z</t>
+  </si>
+  <si>
+    <t>25507.000000</t>
+  </si>
+  <si>
+    <t>6c0e64b2f4ed47b7be1d857b9d9270dc</t>
+  </si>
+  <si>
+    <t>2016-10-14T22:37:31Z</t>
+  </si>
+  <si>
+    <t>39080.000000</t>
+  </si>
+  <si>
+    <t>f2a5675bddb14e62bdadc779b7b2985c</t>
+  </si>
+  <si>
+    <t>2016-10-14T22:39:18Z</t>
+  </si>
+  <si>
+    <t>107.000000</t>
+  </si>
+  <si>
+    <t>b52479c850414c1fbe514acfe56328c3</t>
+  </si>
+  <si>
+    <t>2016-10-15T21:14:26Z</t>
+  </si>
+  <si>
+    <t>81308.000000</t>
+  </si>
+  <si>
+    <t>f31eea9ee87f49248885ed90a8c9e59b</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:06:13Z</t>
+  </si>
+  <si>
+    <t>111107.000000</t>
+  </si>
+  <si>
+    <t>2bc1c58b3a034fa1bef9c02223a7d414</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:07:09Z</t>
+  </si>
+  <si>
+    <t>56.000000</t>
+  </si>
+  <si>
+    <t>68538847963a42c1a72edd69a4b81625</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:11:02Z</t>
+  </si>
+  <si>
+    <t>233.000000</t>
+  </si>
+  <si>
+    <t>f553b87b6a3e44f09cfda0b781e615a2</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:12:46Z</t>
+  </si>
+  <si>
+    <t>104.000000</t>
+  </si>
+  <si>
+    <t>477d9ce8440a4025936f4ba2f490a7c8</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:13:46Z</t>
+  </si>
+  <si>
+    <t>60.000000</t>
+  </si>
+  <si>
+    <t>db6180ee22e143a3825c52b2b942f2e8</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:14:26Z</t>
+  </si>
+  <si>
+    <t>842441e33ad14425bcd5f72712cf2c34</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:17:18Z</t>
+  </si>
+  <si>
+    <t>172.000000</t>
+  </si>
+  <si>
+    <t>c3735f04191f4b058237fa5121780bdf</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:18:15Z</t>
+  </si>
+  <si>
+    <t>57.000000</t>
+  </si>
+  <si>
+    <t>33299296e4314ee787fecec8508fc392</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:57:08Z</t>
+  </si>
+  <si>
+    <t>2333.000000</t>
+  </si>
+  <si>
+    <t>e48278a47ee4435b8783065fad6b5a20</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:57:49Z</t>
+  </si>
+  <si>
+    <t>86dc24bf17c940279f50998d67ed901b</t>
+  </si>
+  <si>
+    <t>2016-10-17T04:58:41Z</t>
+  </si>
+  <si>
+    <t>356f7db48a494f0c96ad1572ff82b525</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:00:35Z</t>
+  </si>
+  <si>
+    <t>114.000000</t>
+  </si>
+  <si>
+    <t>e586e8e60368440b941f55bf00089710</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:03:14Z</t>
+  </si>
+  <si>
+    <t>159.000000</t>
+  </si>
+  <si>
+    <t>26b75735f5594e1f908616222d875038</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:05:01Z</t>
+  </si>
+  <si>
+    <t>bccbaeb6170240f79edfd2450d41a106</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:09:17Z</t>
+  </si>
+  <si>
+    <t>256.000000</t>
+  </si>
+  <si>
+    <t>6467b1f0e2e74fc98fdb52ec31114230</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:18:26Z</t>
+  </si>
+  <si>
+    <t>549.000000</t>
+  </si>
+  <si>
+    <t>bc13d8ce009f4a5a8579d216bf9dca2d</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:24:05Z</t>
+  </si>
+  <si>
+    <t>339.000000</t>
+  </si>
+  <si>
+    <t>23b7baf9a416475292d0aef0eb797993</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:24:13Z</t>
+  </si>
+  <si>
+    <t>0ef5a70defb64fa4bc98371560a16be9</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:24:41Z</t>
+  </si>
+  <si>
+    <t>121140aac12d4e8fb2b31be1cb21a127</t>
+  </si>
+  <si>
+    <t>2016-10-17T05:30:25Z</t>
+  </si>
+  <si>
+    <t>344.000000</t>
+  </si>
+  <si>
+    <t>326f03026e3e4316aefc4365c916c7be</t>
+  </si>
+  <si>
+    <t>2016-10-17T16:01:02Z</t>
+  </si>
+  <si>
+    <t>37837.000000</t>
   </si>
 </sst>
 </file>
@@ -394,7 +2410,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -418,6 +2434,2822 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
